--- a/data/trans_dic/IQ23_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IQ23_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/IQ23_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IQ23_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,88%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,1%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,18%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,48%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>73,75; 84,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>70,16; 82,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>73,81; 85,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>64,71; 77,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>73,1; 83,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>64,99; 77,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>63,86; 76,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>62,6; 79,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>74,92; 82,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>69,66; 78,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>70,67; 79,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>66,2; 77,17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,64%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,23%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,57%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,31%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>72,24; 81,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>68,21; 77,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>58,84; 69,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,26</t>
+          <t>67,99; 78,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>73,18; 82,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,17</t>
+          <t>66,16; 76,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,17</t>
+          <t>59,11; 69,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>65,64; 76,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>74,08; 80,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>68,81; 75,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>60,68; 68,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>68,71; 76,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,09%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,17%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,17%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,32%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,51%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,57%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>60,43; 72,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>59,98; 71,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>60,53; 72,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>67,94; 84,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>65,94; 77,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>66,01; 77,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>59,65; 71,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>58,99; 73,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>65,05; 73,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>65,4; 73,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>62,01; 70,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>65,03; 77,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,43%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,18%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,1%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>66,04; 76,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>66,36; 77,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>61,21; 72,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>57,99; 70,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>62,84; 73,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>65,49; 76,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>61,8; 72,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>62,75; 75,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>66,17; 73,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>67,56; 75,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>62,98; 70,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>62,73; 71,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,64%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,97%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,73%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,79%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,82%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,74%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,82%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,43%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>71,17; 76,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>69,15; 74,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>65,99; 71,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>68,0; 75,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>71,33; 76,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>68,73; 74,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>64,18; 69,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>66,64; 73,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>71,97; 75,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>69,71; 73,46</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>65,75; 69,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>67,74; 72,85</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,21</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
